--- a/ResultadoEleicoesDistritos/BRAGA_AMARES.xlsx
+++ b/ResultadoEleicoesDistritos/BRAGA_AMARES.xlsx
@@ -597,64 +597,64 @@
         <v>5297</v>
       </c>
       <c r="H2" t="n">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I2" t="n">
-        <v>497</v>
+        <v>521</v>
       </c>
       <c r="J2" t="n">
-        <v>2222</v>
+        <v>2219</v>
       </c>
       <c r="K2" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L2" t="n">
-        <v>593</v>
+        <v>561</v>
       </c>
       <c r="M2" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N2" t="n">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="O2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R2" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="S2" t="n">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="T2" t="n">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="U2" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="V2" t="n">
-        <v>3360</v>
+        <v>3341</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>3417</v>
+        <v>3401</v>
       </c>
       <c r="Y2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Z2" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AA2" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
